--- a/biology/Botanique/Piptostigma/Piptostigma.xlsx
+++ b/biology/Botanique/Piptostigma/Piptostigma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piptostigma est un genre de plantes de la famille des Annonaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 septembre 2017) :
 Piptostigma calophyllum Mildbr. &amp; Diels
 Piptostigma exellii R. E. Fr.
 Piptostigma fasciculatum (De Wild.) Boutique ex R. E. Fr.
@@ -528,7 +542,7 @@
 Piptostigma multinervium Engl. &amp; Diels
 Piptostigma oyemense Pellegr.
 Piptostigma pilosum Oliv.
-Selon NCBI  (8 septembre 2017)[3] :
+Selon NCBI  (8 septembre 2017) :
 Piptostigma calophyllum
 Piptostigma fasciculatum
 Piptostigma macranthum
@@ -536,7 +550,7 @@
 Piptostigma multinervium
 Piptostigma oyemense
 Piptostigma pilosum
-Selon The Plant List            (8 septembre 2017)[4] :
+Selon The Plant List            (8 septembre 2017) :
 Piptostigma calophyllum Mildbr. &amp; Diels
 Piptostigma exellii R.E.Fr.
 Piptostigma fasciculatum (De Wild.) Boutique
@@ -548,7 +562,7 @@
 Piptostigma multinervium Engl. &amp; Diels
 Piptostigma oyemense Pellegr.
 Piptostigma pilosum Oliv.
-Selon Tropicos                                           (8 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Piptostigma aubrevillei Ghesquiere ex Aubr.
 Piptostigma calophyllum Mildbr. &amp; Diels
 Piptostigma exellii (Exell) R.E. Fr.
